--- a/biology/Zoologie/Agkistrodon_bilineatus/Agkistrodon_bilineatus.xlsx
+++ b/biology/Zoologie/Agkistrodon_bilineatus/Agkistrodon_bilineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agkistrodon bilineatus est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agkistrodon bilineatus est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Mexique dans le Sud du Sonora, au Sinaloa, au Nayarit, au Jalisco, au Colima, au Michoacán, au Guerrero, au Morelos, en Oaxaca et au Chiapas ;
 au Guatemala ;
 au Salvador ;
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent venimeux assez massif, qui atteint environ 60 cm de long. La tête est triangulaire avec de petits yeux.
 </t>
@@ -577,9 +593,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces Agkistrodon bilineatus howardgloydi[2] et Agkistrodon bilineatus russeolus[3] ont été élevées au rang d'espèce par Porras, Wilson, Schuett et Reiserer en 2013[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces Agkistrodon bilineatus howardgloydi et Agkistrodon bilineatus russeolus ont été élevées au rang d'espèce par Porras, Wilson, Schuett et Reiserer en 2013.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1863 : Third account of new species of snakes in the collection of the British Museum. Annals and magazine of natural history, sér. 3, vol. 12, p. 348-365 (texte intégral).</t>
         </is>
